--- a/src/main/resources/static/表结构设计.xlsx
+++ b/src/main/resources/static/表结构设计.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6292D3F-739B-48AB-9295-737CD5B7CF85}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C253578-FFD3-434E-AD33-F553A0AEF40A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="大网统计模型" sheetId="11" r:id="rId1"/>
+    <sheet name="测试模型" sheetId="11" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>

--- a/src/main/resources/static/表结构设计.xlsx
+++ b/src/main/resources/static/表结构设计.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C253578-FFD3-434E-AD33-F553A0AEF40A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AA3B21-3ABA-4887-8B03-85FA82F6F41E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -644,7 +644,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
